--- a/biology/Botanique/Stigeoclonium/Stigeoclonium.xlsx
+++ b/biology/Botanique/Stigeoclonium/Stigeoclonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stigeoclonium est un genre d’algues vertes de la famille des Chaetophoraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 juin 2013) :
 Stigeoclonium aestivale (Hazen) F.S.Collins
 Stigeoclonium amoenum Kützing
 Stigeoclonium askenasyi Schmidle
@@ -549,7 +563,7 @@
 Stigeoclonium tibeticum Y.-X.Wei &amp; H.J.Hu
 Stigeoclonium uniforme (C.Agardh) Rabenhorst
 Stigeoclonium variabile Nägeli
-Selon ITIS      (12 juin 2013)[2] :
+Selon ITIS      (12 juin 2013) :
 Stigeoclonium aestivale (Hazen) Collins Em Cox &amp; Bold
 Stigeoclonium amoenum
 Stigeoclonium attenatum (Meyer) Collins
@@ -569,7 +583,7 @@
 Stigeoclonium subsecundum (Kuetzing) Kuetzing
 Stigeoclonium subsecuvelum Kuetzing
 Stigeoclonium tenue (C. Agardh) Kuetzing
-Selon World Register of Marine Species                               (12 juin 2013)[3] :
+Selon World Register of Marine Species                               (12 juin 2013) :
 Stigeoclonium amoenum Kützing, 1845
 Stigeoclonium elongatum (Hassall) Kützing, 1849
 Stigeoclonium lubricum (Dillwyn) Kützing, 1845
